--- a/data/trans_bre/P45C_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 8,12</t>
+          <t>-3,36; 8,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,63; 1,24</t>
+          <t>-11,54; 1,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,83; 83,64</t>
+          <t>-23,33; 87,9</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-49,93; 7,75</t>
+          <t>-49,73; 11,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,02; 1,45</t>
+          <t>-8,81; 1,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 1,52</t>
+          <t>-5,83; 1,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 5,74</t>
+          <t>-2,36; 6,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,1; 6,9</t>
+          <t>-33,12; 6,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,7; 15,67</t>
+          <t>-41,39; 19,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,36; 51,62</t>
+          <t>-17,21; 60,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 3,94</t>
+          <t>-6,29; 3,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,5; -6,45</t>
+          <t>-20,67; -6,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,09</t>
+          <t>-0,97; 8,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,05; 37,77</t>
+          <t>-40,99; 38,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-58,43; -24,33</t>
+          <t>-61,02; -25,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 125,55</t>
+          <t>-9,23; 117,66</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,85; -4,75</t>
+          <t>-15,84; -5,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,42; -0,62</t>
+          <t>-8,54; -0,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,37; 2,53</t>
+          <t>-7,53; 2,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,27; -24,24</t>
+          <t>-60,57; -25,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,14; -4,49</t>
+          <t>-49,63; -6,84</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,5; 22,93</t>
+          <t>-44,42; 23,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 5,56</t>
+          <t>-3,51; 5,3</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 6,0</t>
+          <t>-5,73; 6,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,23; -0,96</t>
+          <t>-6,44; -0,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-48,73; 182,55</t>
+          <t>-47,15; 143,57</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,51; 76,67</t>
+          <t>-41,95; 86,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,23</t>
+          <t>-100,0; 47,35</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,98; -2,31</t>
+          <t>-15,95; -1,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,64; -2,92</t>
+          <t>-18,22; -2,19</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 4,96</t>
+          <t>-1,41; 4,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,2; -9,16</t>
+          <t>-55,28; -9,55</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,71; -10,05</t>
+          <t>-49,11; -6,76</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,07; 449,28</t>
+          <t>-48,13; 445,51</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,93; 0,26</t>
+          <t>-6,81; 0,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 1,02</t>
+          <t>-9,07; 0,72</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 5,85</t>
+          <t>-2,41; 6,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-45,9; 2,87</t>
+          <t>-45,89; 3,54</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-30,42; 4,14</t>
+          <t>-31,92; 3,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 46,88</t>
+          <t>-14,13; 50,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 1,76</t>
+          <t>-4,12; 2,02</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,11; 2,26</t>
+          <t>-3,0; 2,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 3,14</t>
+          <t>-4,81; 3,08</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-34,43; 20,06</t>
+          <t>-33,52; 23,77</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 37,79</t>
+          <t>-33,17; 35,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 18,0</t>
+          <t>-22,78; 18,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,1; -1,55</t>
+          <t>-5,09; -1,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,95; -2,45</t>
+          <t>-5,77; -2,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,7</t>
+          <t>-1,48; 1,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-30,12; -10,57</t>
+          <t>-29,96; -10,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-31,83; -14,31</t>
+          <t>-31,39; -13,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 13,52</t>
+          <t>-10,23; 14,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P45C_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,36; 8,21</t>
+          <t>-3,35; 7,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 1,6</t>
+          <t>-11,36; 0,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 87,9</t>
+          <t>-23,58; 85,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-49,73; 11,08</t>
+          <t>-49,03; 5,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 1,26</t>
+          <t>-9,29; 1,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 1,83</t>
+          <t>-6,2; 1,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 6,45</t>
+          <t>-2,36; 6,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 3,53</t>
+          <t>-7,09; 3,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,12; 6,55</t>
+          <t>-34,33; 7,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-41,39; 19,73</t>
+          <t>-42,81; 16,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,21; 60,15</t>
+          <t>-15,7; 58,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-31,46; 26,23</t>
+          <t>-34,31; 27,41</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 3,67</t>
+          <t>-6,55; 3,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,67; -6,76</t>
+          <t>-19,86; -6,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 8,19</t>
+          <t>-1,77; 8,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,0</t>
+          <t>-2,46; 5,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-40,99; 38,09</t>
+          <t>-41,34; 39,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-61,02; -25,32</t>
+          <t>-59,56; -24,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 117,66</t>
+          <t>-15,6; 122,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,41; 115,38</t>
+          <t>-31,8; 125,98</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,84; -5,07</t>
+          <t>-15,79; -4,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,54; -0,89</t>
+          <t>-8,2; -1,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 2,53</t>
+          <t>-7,55; 2,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 2,59</t>
+          <t>-9,59; 2,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,57; -25,26</t>
+          <t>-60,38; -23,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,63; -6,84</t>
+          <t>-48,95; -6,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-44,42; 23,7</t>
+          <t>-45,76; 23,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,83; 28,52</t>
+          <t>-51,24; 32,27</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,51; 5,3</t>
+          <t>-3,98; 5,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 6,56</t>
+          <t>-6,12; 6,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,44; -0,98</t>
+          <t>-7,02; -1,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,38; 2,36</t>
+          <t>-5,23; 2,98</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-47,15; 143,57</t>
+          <t>-49,36; 157,15</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 86,52</t>
+          <t>-42,58; 77,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 47,35</t>
+          <t>-100,0; 49,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-69,71; 67,85</t>
+          <t>-68,98; 92,98</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-15,95; -1,86</t>
+          <t>-16,39; -2,62</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,22; -2,19</t>
+          <t>-18,48; -3,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 4,76</t>
+          <t>-1,03; 4,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 13,67</t>
+          <t>0,18; 13,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,28; -9,55</t>
+          <t>-55,98; -11,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,11; -6,76</t>
+          <t>-49,0; -9,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-48,13; 445,51</t>
+          <t>-35,75; 440,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 72,68</t>
+          <t>0,05; 70,52</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 0,32</t>
+          <t>-7,15; 0,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 0,72</t>
+          <t>-8,64; 0,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,41; 6,12</t>
+          <t>-2,47; 6,09</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,46; 2,45</t>
+          <t>-7,95; 2,06</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-45,89; 3,54</t>
+          <t>-46,51; 3,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 3,05</t>
+          <t>-30,45; 4,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,13; 50,07</t>
+          <t>-14,74; 49,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-47,09; 20,72</t>
+          <t>-48,52; 17,1</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 2,02</t>
+          <t>-4,18; 2,1</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,28</t>
+          <t>-2,93; 2,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 3,08</t>
+          <t>-4,52; 3,33</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,76; -5,18</t>
+          <t>-17,11; -5,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,52; 23,77</t>
+          <t>-35,3; 22,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,17; 35,92</t>
+          <t>-33,1; 40,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-22,78; 18,83</t>
+          <t>-21,07; 19,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-50,05; -22,54</t>
+          <t>-50,65; -24,64</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,09; -1,54</t>
+          <t>-5,0; -1,67</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,77; -2,23</t>
+          <t>-5,68; -2,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 1,78</t>
+          <t>-1,63; 1,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,93; -1,84</t>
+          <t>-5,83; -1,81</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-29,96; -10,14</t>
+          <t>-30,11; -11,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-31,39; -13,29</t>
+          <t>-30,73; -14,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 14,32</t>
+          <t>-11,5; 13,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-32,66; -11,51</t>
+          <t>-32,38; -11,48</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-4,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,22; 1,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,95</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,67; 10,85</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-1,43</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-8,35%</t>
+          <t>-9,93%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 3,61</t>
+          <t>-7,62; 3,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 27,41</t>
+          <t>-35,77; 25,97</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,19%</t>
+          <t>22,52%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 5,32</t>
+          <t>-2,47; 5,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-31,8; 125,98</t>
+          <t>-30,85; 128,34</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,56</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-5,77</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-30,38%</t>
+          <t>-33,66%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-20,77%</t>
+          <t>-39,19%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,2; -1,0</t>
+          <t>-8,98; 0,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,59; 2,78</t>
+          <t>-14,52; 0,6</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,95; -6,85</t>
+          <t>-60,32; 3,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,24; 32,27</t>
+          <t>-69,34; 6,63</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-1,26</t>
+          <t>-1,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-22,91%</t>
+          <t>-24,86%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 2,98</t>
+          <t>-5,26; 2,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-68,98; 92,98</t>
+          <t>-70,05; 81,09</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,75</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>30,01%</t>
+          <t>30,74%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,18; 13,64</t>
+          <t>0,32; 13,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,05; 70,52</t>
+          <t>0,96; 72,84</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-3,54</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-16,17%</t>
+          <t>-26,1%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,95; 2,06</t>
+          <t>-10,32; 1,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-48,52; 17,1</t>
+          <t>-66,42; 10,79</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-12,37</t>
+          <t>-5,65</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-40,42%</t>
+          <t>-23,69%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,11; -5,8</t>
+          <t>-15,37; 7,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-50,65; -24,64</t>
+          <t>-46,77; 71,64</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-3,78</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-22,27%</t>
+          <t>-20,11%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,83; -1,81</t>
+          <t>-5,49; 0,52</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-32,38; -11,48</t>
+          <t>-33,73; 2,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 7,71</t>
+          <t>-4,24; 8,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 1,63</t>
+          <t>-11,19; 1,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 0,78</t>
+          <t>-11,79; 1,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>0,0; 0,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-23,58; 85,76</t>
+          <t>-27,63; 79,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-52,67; 10,85</t>
+          <t>-53,26; 11,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-49,03; 5,77</t>
+          <t>-50,92; 9,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 1,42</t>
+          <t>-9,53; 1,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,2; 1,58</t>
+          <t>-6,16; 1,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 6,31</t>
+          <t>-2,18; 6,51</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,62; 3,51</t>
+          <t>-7,24; 3,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,33; 7,72</t>
+          <t>-35,4; 5,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,81; 16,68</t>
+          <t>-45,15; 18,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,7; 58,43</t>
+          <t>-15,64; 62,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-35,77; 25,97</t>
+          <t>-34,08; 27,24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,55; 3,77</t>
+          <t>-5,62; 4,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,86; -6,6</t>
+          <t>-20,62; -7,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 8,05</t>
+          <t>-1,37; 7,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,45</t>
+          <t>-2,38; 5,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,34; 39,29</t>
+          <t>-38,83; 42,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-59,56; -24,37</t>
+          <t>-60,36; -27,99</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 122,3</t>
+          <t>-13,1; 118,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 128,34</t>
+          <t>-31,62; 117,88</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,79; -4,73</t>
+          <t>-15,71; -4,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 0,33</t>
+          <t>-8,41; 0,25</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,55; 2,53</t>
+          <t>-6,9; 2,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,52; 0,6</t>
+          <t>-15,06; 0,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,38; -23,25</t>
+          <t>-60,09; -21,91</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 3,41</t>
+          <t>-57,02; 4,93</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-45,76; 23,68</t>
+          <t>-42,64; 24,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-69,34; 6,63</t>
+          <t>-70,7; 3,61</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 5,85</t>
+          <t>-3,52; 5,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 6,08</t>
+          <t>-5,65; 6,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,02; -1,2</t>
+          <t>-6,36; -0,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 2,64</t>
+          <t>-5,32; 2,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-49,36; 157,15</t>
+          <t>-49,56; 155,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-42,58; 77,69</t>
+          <t>-40,32; 77,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 49,0</t>
+          <t>-100,0; -9,72</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-70,05; 81,09</t>
+          <t>-69,07; 71,66</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-16,39; -2,62</t>
+          <t>-16,97; -2,14</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-18,48; -3,01</t>
+          <t>-17,18; -2,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 4,54</t>
+          <t>-1,2; 4,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,32; 13,95</t>
+          <t>0,24; 13,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-55,98; -11,8</t>
+          <t>-54,82; -9,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-49,0; -9,79</t>
+          <t>-46,78; -6,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-35,75; 440,73</t>
+          <t>-39,82; 506,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,96; 72,84</t>
+          <t>1,5; 75,69</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 0,4</t>
+          <t>-6,5; 0,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 0,95</t>
+          <t>-9,62; 0,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 6,09</t>
+          <t>-2,55; 5,66</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 1,45</t>
+          <t>-10,9; 1,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-46,51; 3,94</t>
+          <t>-44,56; 4,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-30,45; 4,07</t>
+          <t>-33,4; 2,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 49,4</t>
+          <t>-15,55; 45,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-66,42; 10,79</t>
+          <t>-68,51; 10,23</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-4,18; 2,1</t>
+          <t>-4,42; 1,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 2,43</t>
+          <t>-2,83; 2,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-4,52; 3,33</t>
+          <t>-5,08; 3,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 7,6</t>
+          <t>-15,81; 8,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-35,3; 22,68</t>
+          <t>-36,39; 22,08</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 40,31</t>
+          <t>-32,49; 36,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-21,07; 19,01</t>
+          <t>-23,61; 17,96</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-46,77; 71,64</t>
+          <t>-47,87; 63,46</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,0; -1,67</t>
+          <t>-5,02; -1,54</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-5,68; -2,46</t>
+          <t>-6,01; -2,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 1,68</t>
+          <t>-1,57; 1,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 0,52</t>
+          <t>-5,87; 0,41</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-30,11; -11,46</t>
+          <t>-30,3; -10,23</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-30,73; -14,6</t>
+          <t>-32,46; -14,79</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-11,5; 13,52</t>
+          <t>-10,92; 13,7</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-33,73; 2,79</t>
+          <t>-34,56; 1,39</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P45C_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Provincia-trans_bre.xlsx
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con alguna quemadura solar en el último año</t>
+          <t>Población que ha sufrido alguna quemadura solar (con o sin ampollas) en el último año</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
